--- a/Data_Ryan/Bond Futures.xlsx
+++ b/Data_Ryan/Bond Futures.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp1\Desktop\Fundamental Analysts 2025_26\December_08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyo/Developer/PMP Github/PMP_December_8/Data_Ryan/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545155B5-442B-D845-BC29-AD2E4F1CE4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13080"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" hidden="1">Sheet1!$A$1:$G$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
@@ -374,26 +386,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35825</v>
       </c>
@@ -445,7 +458,7 @@
         <v>89.284220000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35853</v>
       </c>
@@ -471,7 +484,7 @@
         <v>89.20823</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35885</v>
       </c>
@@ -497,7 +510,7 @@
         <v>92.709649999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35915</v>
       </c>
@@ -523,7 +536,7 @@
         <v>92.895499999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35944</v>
       </c>
@@ -549,7 +562,7 @@
         <v>91.673109999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35976</v>
       </c>
@@ -575,7 +588,7 @@
         <v>92.695220000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36007</v>
       </c>
@@ -601,7 +614,7 @@
         <v>90.908699999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36038</v>
       </c>
@@ -627,7 +640,7 @@
         <v>96.112560000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36068</v>
       </c>
@@ -653,7 +666,7 @@
         <v>100.2843</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36098</v>
       </c>
@@ -679,7 +692,7 @@
         <v>97.554450000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36129</v>
       </c>
@@ -705,7 +718,7 @@
         <v>98.329189999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36160</v>
       </c>
@@ -731,7 +744,7 @@
         <v>100.85352</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36189</v>
       </c>
@@ -757,7 +770,7 @@
         <v>100.81690999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36217</v>
       </c>
@@ -783,7 +796,7 @@
         <v>95.037509999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36250</v>
       </c>
@@ -809,7 +822,7 @@
         <v>96.105339999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>36280</v>
       </c>
@@ -835,7 +848,7 @@
         <v>94.705550000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>36311</v>
       </c>
@@ -861,7 +874,7 @@
         <v>92.660610000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>36341</v>
       </c>
@@ -887,7 +900,7 @@
         <v>89.453130000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>36371</v>
       </c>
@@ -913,7 +926,7 @@
         <v>90.139809999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>36403</v>
       </c>
@@ -939,7 +952,7 @@
         <v>90.777619999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>36433</v>
       </c>
@@ -965,7 +978,7 @@
         <v>89.943830000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>36462</v>
       </c>
@@ -991,7 +1004,7 @@
         <v>91.033969999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>36494</v>
       </c>
@@ -1017,7 +1030,7 @@
         <v>89.337000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>36525</v>
       </c>
@@ -1043,7 +1056,7 @@
         <v>89.199160000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>36556</v>
       </c>
@@ -1069,7 +1082,7 @@
         <v>87.680520000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>36585</v>
       </c>
@@ -1095,7 +1108,7 @@
         <v>87.814130000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>36616</v>
       </c>
@@ -1121,7 +1134,7 @@
         <v>89.914529999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>36644</v>
       </c>
@@ -1147,7 +1160,7 @@
         <v>88.028509999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>36677</v>
       </c>
@@ -1173,7 +1186,7 @@
         <v>85.038489999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>36707</v>
       </c>
@@ -1199,7 +1212,7 @@
         <v>86.042199999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>36738</v>
       </c>
@@ -1225,7 +1238,7 @@
         <v>84.791030000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36769</v>
       </c>
@@ -1251,7 +1264,7 @@
         <v>81.192729999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>36798</v>
       </c>
@@ -1277,7 +1290,7 @@
         <v>83.83305</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>36830</v>
       </c>
@@ -1303,7 +1316,7 @@
         <v>82.459289999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36860</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>82.528869999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36889</v>
       </c>
@@ -1355,7 +1368,7 @@
         <v>86.693520000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36922</v>
       </c>
@@ -1381,7 +1394,7 @@
         <v>84.941590000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36950</v>
       </c>
@@ -1407,7 +1420,7 @@
         <v>83.800160000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>36980</v>
       </c>
@@ -1433,7 +1446,7 @@
         <v>82.344920000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>37011</v>
       </c>
@@ -1459,7 +1472,7 @@
         <v>80.8613</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>37042</v>
       </c>
@@ -1485,7 +1498,7 @@
         <v>79.814580000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>37071</v>
       </c>
@@ -1511,7 +1524,7 @@
         <v>79.003249999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>37103</v>
       </c>
@@ -1537,7 +1550,7 @@
         <v>81.551959999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>37134</v>
       </c>
@@ -1563,7 +1576,7 @@
         <v>84.179429999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>37162</v>
       </c>
@@ -1589,7 +1602,7 @@
         <v>84.814139999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>37195</v>
       </c>
@@ -1615,7 +1628,7 @@
         <v>86.41704</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>37225</v>
       </c>
@@ -1641,7 +1654,7 @@
         <v>83.537869999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37256</v>
       </c>
@@ -1667,7 +1680,7 @@
         <v>83.069779999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>37287</v>
       </c>
@@ -1693,7 +1706,7 @@
         <v>82.064899999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>37315</v>
       </c>
@@ -1719,7 +1732,7 @@
         <v>81.813450000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>37344</v>
       </c>
@@ -1745,7 +1758,7 @@
         <v>80.704359999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>37376</v>
       </c>
@@ -1771,7 +1784,7 @@
         <v>83.260419999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>37407</v>
       </c>
@@ -1797,7 +1810,7 @@
         <v>83.173950000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>37435</v>
       </c>
@@ -1823,7 +1836,7 @@
         <v>88.465789999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>37468</v>
       </c>
@@ -1849,7 +1862,7 @@
         <v>91.676270000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>37498</v>
       </c>
@@ -1875,7 +1888,7 @@
         <v>92.213620000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>37529</v>
       </c>
@@ -1901,7 +1914,7 @@
         <v>95.205820000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>37560</v>
       </c>
@@ -1927,7 +1940,7 @@
         <v>93.625870000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>37589</v>
       </c>
@@ -1953,7 +1966,7 @@
         <v>92.417910000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>37621</v>
       </c>
@@ -1979,7 +1992,7 @@
         <v>97.889150000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>37652</v>
       </c>
@@ -2005,7 +2018,7 @@
         <v>100.74651</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>37680</v>
       </c>
@@ -2031,7 +2044,7 @@
         <v>97.278940000000006</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>37711</v>
       </c>
@@ -2057,7 +2070,7 @@
         <v>96.738150000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>37741</v>
       </c>
@@ -2083,7 +2096,7 @@
         <v>97.697289999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>37771</v>
       </c>
@@ -2109,7 +2122,7 @@
         <v>102.13239</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>37802</v>
       </c>
@@ -2135,7 +2148,7 @@
         <v>102.37036000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>37833</v>
       </c>
@@ -2161,7 +2174,7 @@
         <v>97.200959999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>37862</v>
       </c>
@@ -2187,7 +2200,7 @@
         <v>94.873310000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>37894</v>
       </c>
@@ -2213,7 +2226,7 @@
         <v>100.72686</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>37925</v>
       </c>
@@ -2239,7 +2252,7 @@
         <v>99.404250000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>37953</v>
       </c>
@@ -2265,7 +2278,7 @@
         <v>100.87872</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>37986</v>
       </c>
@@ -2291,7 +2304,7 @@
         <v>106.63506</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>38016</v>
       </c>
@@ -2317,7 +2330,7 @@
         <v>108.35794</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38044</v>
       </c>
@@ -2343,7 +2356,7 @@
         <v>112.08651</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>38077</v>
       </c>
@@ -2369,7 +2382,7 @@
         <v>110.75131</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>38107</v>
       </c>
@@ -2395,7 +2408,7 @@
         <v>105.00345</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38138</v>
       </c>
@@ -2421,7 +2434,7 @@
         <v>107.10735</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38168</v>
       </c>
@@ -2447,7 +2460,7 @@
         <v>106.49764999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38198</v>
       </c>
@@ -2473,7 +2486,7 @@
         <v>106.69649</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38230</v>
       </c>
@@ -2499,7 +2512,7 @@
         <v>107.36004</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38260</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>108.4649</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38289</v>
       </c>
@@ -2551,7 +2564,7 @@
         <v>110.54758</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>38321</v>
       </c>
@@ -2577,7 +2590,7 @@
         <v>116.17333000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>38352</v>
       </c>
@@ -2603,7 +2616,7 @@
         <v>119.04318000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>38383</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>116.37821</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>38411</v>
       </c>
@@ -2655,7 +2668,7 @@
         <v>117.73551999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>38442</v>
       </c>
@@ -2681,7 +2694,7 @@
         <v>115.21344000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>38471</v>
       </c>
@@ -2707,7 +2720,7 @@
         <v>118.02609</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>38503</v>
       </c>
@@ -2733,7 +2746,7 @@
         <v>114.46644999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>38533</v>
       </c>
@@ -2759,7 +2772,7 @@
         <v>113.64102</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>38562</v>
       </c>
@@ -2785,7 +2798,7 @@
         <v>110.33027</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>38595</v>
       </c>
@@ -2811,7 +2824,7 @@
         <v>114.41312000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>38625</v>
       </c>
@@ -2837,7 +2850,7 @@
         <v>110.82908999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>38656</v>
       </c>
@@ -2863,7 +2876,7 @@
         <v>110.60912</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>38686</v>
       </c>
@@ -2889,7 +2902,7 @@
         <v>109.16555</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>38716</v>
       </c>
@@ -2915,7 +2928,7 @@
         <v>109.79085000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>38748</v>
       </c>
@@ -2941,7 +2954,7 @@
         <v>113.56196</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>38776</v>
       </c>
@@ -2967,7 +2980,7 @@
         <v>111.27983999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>38807</v>
       </c>
@@ -2993,7 +3006,7 @@
         <v>108.70605</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>38835</v>
       </c>
@@ -3019,7 +3032,7 @@
         <v>111.83739</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>38868</v>
       </c>
@@ -3045,7 +3058,7 @@
         <v>115.43192999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>38898</v>
       </c>
@@ -3071,7 +3084,7 @@
         <v>112.88065</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>38929</v>
       </c>
@@ -3097,7 +3110,7 @@
         <v>115.05274</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>38960</v>
       </c>
@@ -3123,7 +3136,7 @@
         <v>117.84056</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>38989</v>
       </c>
@@ -3149,7 +3162,7 @@
         <v>115.75708</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>39021</v>
       </c>
@@ -3175,7 +3188,7 @@
         <v>117.97598000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>39051</v>
       </c>
@@ -3201,7 +3214,7 @@
         <v>121.65461000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>39080</v>
       </c>
@@ -3227,7 +3240,7 @@
         <v>119.07316</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>39113</v>
       </c>
@@ -3253,7 +3266,7 @@
         <v>117.33681</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>39141</v>
       </c>
@@ -3279,7 +3292,7 @@
         <v>118.81826</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>39171</v>
       </c>
@@ -3305,7 +3318,7 @@
         <v>117.80175</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>39202</v>
       </c>
@@ -3331,7 +3344,7 @@
         <v>119.0356</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>39233</v>
       </c>
@@ -3357,7 +3370,7 @@
         <v>115.92032</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>39262</v>
       </c>
@@ -3383,7 +3396,7 @@
         <v>115.57669</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>39294</v>
       </c>
@@ -3409,7 +3422,7 @@
         <v>119.28118000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>39325</v>
       </c>
@@ -3435,7 +3448,7 @@
         <v>119.80683000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>39353</v>
       </c>
@@ -3461,7 +3474,7 @@
         <v>121.14746</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>39386</v>
       </c>
@@ -3487,7 +3500,7 @@
         <v>123.84878</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>39416</v>
       </c>
@@ -3513,7 +3526,7 @@
         <v>125.20358</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>39447</v>
       </c>
@@ -3539,7 +3552,7 @@
         <v>121.44801</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>39478</v>
       </c>
@@ -3565,7 +3578,7 @@
         <v>122.19741</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>39507</v>
       </c>
@@ -3591,7 +3604,7 @@
         <v>121.83895</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>39538</v>
       </c>
@@ -3617,7 +3630,7 @@
         <v>122.94592</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>39568</v>
       </c>
@@ -3643,7 +3656,7 @@
         <v>119.42225999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>39598</v>
       </c>
@@ -3669,7 +3682,7 @@
         <v>116.53968</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>39629</v>
       </c>
@@ -3695,7 +3708,7 @@
         <v>115.72268</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>39660</v>
       </c>
@@ -3721,7 +3734,7 @@
         <v>118.46510000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>39689</v>
       </c>
@@ -3747,7 +3760,7 @@
         <v>110.84887999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>39721</v>
       </c>
@@ -3773,7 +3786,7 @@
         <v>109.13786</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>39752</v>
       </c>
@@ -3799,7 +3812,7 @@
         <v>98.256309999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>39780</v>
       </c>
@@ -3825,7 +3838,7 @@
         <v>98.792950000000005</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>39813</v>
       </c>
@@ -3851,7 +3864,7 @@
         <v>99.129599999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>39843</v>
       </c>
@@ -3877,7 +3890,7 @@
         <v>93.541380000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>39871</v>
       </c>
@@ -3903,7 +3916,7 @@
         <v>95.184269999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>39903</v>
       </c>
@@ -3929,7 +3942,7 @@
         <v>98.109089999999995</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>39933</v>
       </c>
@@ -3955,7 +3968,7 @@
         <v>99.220870000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>39962</v>
       </c>
@@ -3981,7 +3994,7 @@
         <v>106.78863</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>39994</v>
       </c>
@@ -4007,7 +4020,7 @@
         <v>109.68179000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40025</v>
       </c>
@@ -4033,7 +4046,7 @@
         <v>110.60566</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>40056</v>
       </c>
@@ -4059,7 +4072,7 @@
         <v>110.32008999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>40086</v>
       </c>
@@ -4085,7 +4098,7 @@
         <v>108.66018</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40116</v>
       </c>
@@ -4111,7 +4124,7 @@
         <v>111.51102</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40147</v>
       </c>
@@ -4137,7 +4150,7 @@
         <v>112.6361</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40178</v>
       </c>
@@ -4163,7 +4176,7 @@
         <v>107.19182000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40207</v>
       </c>
@@ -4189,7 +4202,7 @@
         <v>107.41276000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40235</v>
       </c>
@@ -4215,7 +4228,7 @@
         <v>102.38388</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40268</v>
       </c>
@@ -4241,7 +4254,7 @@
         <v>102.37083</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>40298</v>
       </c>
@@ -4267,7 +4280,7 @@
         <v>104.05206</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>40329</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>102.21705</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>40359</v>
       </c>
@@ -4319,7 +4332,7 @@
         <v>107.38317000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>40389</v>
       </c>
@@ -4345,7 +4358,7 @@
         <v>113.06444999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>40421</v>
       </c>
@@ -4371,7 +4384,7 @@
         <v>115.14686</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>40451</v>
       </c>
@@ -4397,7 +4410,7 @@
         <v>117.20188</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>40480</v>
       </c>
@@ -4423,7 +4436,7 @@
         <v>118.43379</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>40512</v>
       </c>
@@ -4449,7 +4462,7 @@
         <v>114.15254</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>40543</v>
       </c>
@@ -4475,7 +4488,7 @@
         <v>112.90291000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>40574</v>
       </c>
@@ -4501,7 +4514,7 @@
         <v>114.00489</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>40602</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v>116.19786999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>40633</v>
       </c>
@@ -4553,7 +4566,7 @@
         <v>115.37669</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>40662</v>
       </c>
@@ -4579,7 +4592,7 @@
         <v>121.93794</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>40694</v>
       </c>
@@ -4605,7 +4618,7 @@
         <v>122.24498</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>40724</v>
       </c>
@@ -4631,7 +4644,7 @@
         <v>119.53335</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>40753</v>
       </c>
@@ -4657,7 +4670,7 @@
         <v>127.28287</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>40786</v>
       </c>
@@ -4683,7 +4696,7 @@
         <v>128.74976000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>40816</v>
       </c>
@@ -4709,7 +4722,7 @@
         <v>127.19059</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>40847</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>129.43618000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>40877</v>
       </c>
@@ -4761,7 +4774,7 @@
         <v>127.96624</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>40907</v>
       </c>
@@ -4787,7 +4800,7 @@
         <v>129.92617999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>40939</v>
       </c>
@@ -4813,7 +4826,7 @@
         <v>132.27521999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>40968</v>
       </c>
@@ -4839,7 +4852,7 @@
         <v>132.86102</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>40998</v>
       </c>
@@ -4865,7 +4878,7 @@
         <v>133.15306000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41029</v>
       </c>
@@ -4891,7 +4904,7 @@
         <v>136.47497999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41060</v>
       </c>
@@ -4917,7 +4930,7 @@
         <v>136.39151000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41089</v>
       </c>
@@ -4943,7 +4956,7 @@
         <v>136.97325000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41121</v>
       </c>
@@ -4969,7 +4982,7 @@
         <v>140.04248000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41152</v>
       </c>
@@ -4995,7 +5008,7 @@
         <v>141.85509999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41180</v>
       </c>
@@ -5021,7 +5034,7 @@
         <v>144.16801000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41213</v>
       </c>
@@ -5047,7 +5060,7 @@
         <v>142.23158000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41243</v>
       </c>
@@ -5073,7 +5086,7 @@
         <v>142.48307</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41274</v>
       </c>
@@ -5099,7 +5112,7 @@
         <v>143.80179000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>41305</v>
       </c>
@@ -5125,7 +5138,7 @@
         <v>137.52995000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>41333</v>
       </c>
@@ -5151,7 +5164,7 @@
         <v>133.04409999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>41362</v>
       </c>
@@ -5177,7 +5190,7 @@
         <v>135.50255999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>41394</v>
       </c>
@@ -5203,7 +5216,7 @@
         <v>140.06945999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>41425</v>
       </c>
@@ -5229,7 +5242,7 @@
         <v>132.95267000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>41453</v>
       </c>
@@ -5255,7 +5268,7 @@
         <v>128.71316999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>41486</v>
       </c>
@@ -5281,7 +5294,7 @@
         <v>129.54209</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>41516</v>
       </c>
@@ -5307,7 +5320,7 @@
         <v>129.35937000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>41547</v>
       </c>
@@ -5333,7 +5346,7 @@
         <v>136.36822000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>41578</v>
       </c>
@@ -5359,7 +5372,7 @@
         <v>136.40836999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>41607</v>
       </c>
@@ -5385,7 +5398,7 @@
         <v>137.30168</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>41639</v>
       </c>
@@ -5411,7 +5424,7 @@
         <v>135.99728999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>41670</v>
       </c>
@@ -5437,7 +5450,7 @@
         <v>139.97534999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>41698</v>
       </c>
@@ -5463,7 +5476,7 @@
         <v>142.26306</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>41729</v>
       </c>
@@ -5489,7 +5502,7 @@
         <v>141.92398</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>41759</v>
       </c>
@@ -5515,7 +5528,7 @@
         <v>144.60607999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>41789</v>
       </c>
@@ -5541,7 +5554,7 @@
         <v>145.44721999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>41820</v>
       </c>
@@ -5567,7 +5580,7 @@
         <v>147.19092000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>41851</v>
       </c>
@@ -5593,7 +5606,7 @@
         <v>146.32805999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>41880</v>
       </c>
@@ -5619,7 +5632,7 @@
         <v>148.55001999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>41912</v>
       </c>
@@ -5645,7 +5658,7 @@
         <v>144.78861000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>41943</v>
       </c>
@@ -5671,7 +5684,7 @@
         <v>145.25349</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>41971</v>
       </c>
@@ -5697,7 +5710,7 @@
         <v>145.9151</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>42004</v>
       </c>
@@ -5723,7 +5736,7 @@
         <v>147.96827999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>42034</v>
       </c>
@@ -5749,7 +5762,7 @@
         <v>147.81974</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>42062</v>
       </c>
@@ -5775,7 +5788,7 @@
         <v>146.43297000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>42094</v>
       </c>
@@ -5801,7 +5814,7 @@
         <v>143.39009999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>42124</v>
       </c>
@@ -5827,7 +5840,7 @@
         <v>144.90694999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>42153</v>
       </c>
@@ -5853,7 +5866,7 @@
         <v>144.98356000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>42185</v>
       </c>
@@ -5879,7 +5892,7 @@
         <v>146.73828</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>42216</v>
       </c>
@@ -5905,7 +5918,7 @@
         <v>147.78313</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>42247</v>
       </c>
@@ -5931,7 +5944,7 @@
         <v>146.49404999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>42277</v>
       </c>
@@ -5957,7 +5970,7 @@
         <v>146.32328999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>42307</v>
       </c>
@@ -5983,7 +5996,7 @@
         <v>147.71621999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>42338</v>
       </c>
@@ -6009,7 +6022,7 @@
         <v>144.86024</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>42369</v>
       </c>
@@ -6035,7 +6048,7 @@
         <v>140.80822000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>42398</v>
       </c>
@@ -6061,7 +6074,7 @@
         <v>140.05708999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>42429</v>
       </c>
@@ -6087,7 +6100,7 @@
         <v>139.77141</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>42460</v>
       </c>
@@ -6113,7 +6126,7 @@
         <v>143.80667</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>42489</v>
       </c>
@@ -6139,7 +6152,7 @@
         <v>144.17169999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>42521</v>
       </c>
@@ -6165,7 +6178,7 @@
         <v>144.89591999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>42551</v>
       </c>
@@ -6191,7 +6204,7 @@
         <v>137.69842</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>42580</v>
       </c>
@@ -6217,7 +6230,7 @@
         <v>139.91165000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>42613</v>
       </c>
@@ -6243,7 +6256,7 @@
         <v>140.79585</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>42643</v>
       </c>
@@ -6269,7 +6282,7 @@
         <v>137.6454</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>42674</v>
       </c>
@@ -6295,7 +6308,7 @@
         <v>124.87891999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>42704</v>
       </c>
@@ -6321,7 +6334,7 @@
         <v>126.3634</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>42734</v>
       </c>
@@ -6347,7 +6360,7 @@
         <v>126.92218</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>42766</v>
       </c>
@@ -6373,7 +6386,7 @@
         <v>127.22241</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>42794</v>
       </c>
@@ -6399,7 +6412,7 @@
         <v>130.20898</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>42825</v>
       </c>
@@ -6425,7 +6438,7 @@
         <v>131.86429000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>42853</v>
       </c>
@@ -6451,7 +6464,7 @@
         <v>136.8903</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>42886</v>
       </c>
@@ -6477,7 +6490,7 @@
         <v>137.02088000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>42916</v>
       </c>
@@ -6503,7 +6516,7 @@
         <v>135.7072</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>42947</v>
       </c>
@@ -6529,7 +6542,7 @@
         <v>138.09906000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>42978</v>
       </c>
@@ -6555,7 +6568,7 @@
         <v>137.45312999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43007</v>
       </c>
@@ -6581,7 +6594,7 @@
         <v>138.94099</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43039</v>
       </c>
@@ -6607,7 +6620,7 @@
         <v>138.17564999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43069</v>
       </c>
@@ -6633,7 +6646,7 @@
         <v>140.83607000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43098</v>
       </c>
@@ -6659,7 +6672,7 @@
         <v>142.7636</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43131</v>
       </c>
@@ -6685,7 +6698,7 @@
         <v>146.11788999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43159</v>
       </c>
@@ -6711,7 +6724,7 @@
         <v>141.92617000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43189</v>
       </c>
@@ -6737,7 +6750,7 @@
         <v>146.41721000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43220</v>
       </c>
@@ -6763,7 +6776,7 @@
         <v>143.12931</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43251</v>
       </c>
@@ -6789,7 +6802,7 @@
         <v>140.65212</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43280</v>
       </c>
@@ -6815,7 +6828,7 @@
         <v>139.09004999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43312</v>
       </c>
@@ -6841,7 +6854,7 @@
         <v>137.95642000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43343</v>
       </c>
@@ -6867,7 +6880,7 @@
         <v>136.77922000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43371</v>
       </c>
@@ -6893,7 +6906,7 @@
         <v>136.095</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43404</v>
       </c>
@@ -6919,7 +6932,7 @@
         <v>134.70735999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43434</v>
       </c>
@@ -6945,7 +6958,7 @@
         <v>135.81881999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43465</v>
       </c>
@@ -6971,7 +6984,7 @@
         <v>136.29322999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43496</v>
       </c>
@@ -6997,7 +7010,7 @@
         <v>140.72390999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43524</v>
       </c>
@@ -7023,7 +7036,7 @@
         <v>141.71539000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43553</v>
       </c>
@@ -7049,7 +7062,7 @@
         <v>141.9879</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43585</v>
       </c>
@@ -7075,7 +7088,7 @@
         <v>140.26495</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43616</v>
       </c>
@@ -7101,7 +7114,7 @@
         <v>139.31120999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43644</v>
       </c>
@@ -7127,7 +7140,7 @@
         <v>140.72174999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43677</v>
       </c>
@@ -7153,7 +7166,7 @@
         <v>138.01877999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43707</v>
       </c>
@@ -7179,7 +7192,7 @@
         <v>139.99137999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43738</v>
       </c>
@@ -7205,7 +7218,7 @@
         <v>141.34800000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>43769</v>
       </c>
@@ -7231,7 +7244,7 @@
         <v>147.23745</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>43798</v>
       </c>
@@ -7257,7 +7270,7 @@
         <v>146.30526</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>43830</v>
       </c>
@@ -7283,7 +7296,7 @@
         <v>148.45169000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>43861</v>
       </c>
@@ -7309,7 +7322,7 @@
         <v>151.70403999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>43889</v>
       </c>
@@ -7335,7 +7348,7 @@
         <v>148.04041000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>43921</v>
       </c>
@@ -7361,7 +7374,7 @@
         <v>144.76048</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>43951</v>
       </c>
@@ -7387,7 +7400,7 @@
         <v>148.53773000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>43980</v>
       </c>
@@ -7413,7 +7426,7 @@
         <v>146.14843999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44012</v>
       </c>
@@ -7439,7 +7452,7 @@
         <v>147.06416999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44043</v>
       </c>
@@ -7465,7 +7478,7 @@
         <v>156.64672999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44074</v>
       </c>
@@ -7491,7 +7504,7 @@
         <v>156.38254000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44104</v>
       </c>
@@ -7517,7 +7530,7 @@
         <v>152.72369</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44134</v>
       </c>
@@ -7543,7 +7556,7 @@
         <v>152.60675000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44165</v>
       </c>
@@ -7569,7 +7582,7 @@
         <v>156.79161999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44196</v>
       </c>
@@ -7595,7 +7608,7 @@
         <v>161.93396000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44225</v>
       </c>
@@ -7621,7 +7634,7 @@
         <v>160.82306</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44253</v>
       </c>
@@ -7647,7 +7660,7 @@
         <v>157.13457</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44286</v>
       </c>
@@ -7673,7 +7686,7 @@
         <v>155.34696</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44316</v>
       </c>
@@ -7699,7 +7712,7 @@
         <v>155.78227999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44347</v>
       </c>
@@ -7725,7 +7738,7 @@
         <v>160.7696</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44377</v>
       </c>
@@ -7751,7 +7764,7 @@
         <v>157.21516</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44407</v>
       </c>
@@ -7777,7 +7790,7 @@
         <v>160.43199999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44439</v>
       </c>
@@ -7803,7 +7816,7 @@
         <v>158.12371999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44469</v>
       </c>
@@ -7829,7 +7842,7 @@
         <v>151.07069000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44498</v>
       </c>
@@ -7855,7 +7868,7 @@
         <v>153.16793000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44530</v>
       </c>
@@ -7881,7 +7894,7 @@
         <v>151.4528</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44561</v>
       </c>
@@ -7907,7 +7920,7 @@
         <v>152.86792</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44592</v>
       </c>
@@ -7933,7 +7946,7 @@
         <v>148.18879999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44620</v>
       </c>
@@ -7959,7 +7972,7 @@
         <v>147.00339</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44651</v>
       </c>
@@ -7985,7 +7998,7 @@
         <v>142.37234000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44680</v>
       </c>
@@ -8011,7 +8024,7 @@
         <v>133.15674999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44712</v>
       </c>
@@ -8037,7 +8050,7 @@
         <v>131.53711999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44742</v>
       </c>
@@ -8063,7 +8076,7 @@
         <v>125.71369</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44771</v>
       </c>
@@ -8089,7 +8102,7 @@
         <v>130.26042000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44804</v>
       </c>
@@ -8115,7 +8128,7 @@
         <v>114.95023999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44834</v>
       </c>
@@ -8141,7 +8154,7 @@
         <v>97.755309999999994</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44865</v>
       </c>
@@ -8167,7 +8180,7 @@
         <v>106.71099</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44895</v>
       </c>
@@ -8193,7 +8206,7 @@
         <v>115.73372000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44925</v>
       </c>
@@ -8219,7 +8232,7 @@
         <v>111.3844</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44957</v>
       </c>
@@ -8245,7 +8258,7 @@
         <v>118.72038999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44985</v>
       </c>
@@ -8271,7 +8284,7 @@
         <v>112.38414</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>45016</v>
       </c>
@@ -8297,7 +8310,7 @@
         <v>118.54069</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>45044</v>
       </c>
@@ -8323,7 +8336,7 @@
         <v>118.51224000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>45077</v>
       </c>
@@ -8349,7 +8362,7 @@
         <v>111.40164</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>45107</v>
       </c>
@@ -8375,7 +8388,7 @@
         <v>115.77384000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45138</v>
       </c>
@@ -8401,7 +8414,7 @@
         <v>118.08626</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45169</v>
       </c>
@@ -8427,7 +8440,7 @@
         <v>115.42437</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45198</v>
       </c>
@@ -8453,7 +8466,7 @@
         <v>109.98578999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>45230</v>
       </c>
@@ -8479,7 +8492,7 @@
         <v>108.30064</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>45260</v>
       </c>
@@ -8505,7 +8518,7 @@
         <v>116.71134000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>45289</v>
       </c>
@@ -8531,7 +8544,7 @@
         <v>125.13148</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>45322</v>
       </c>
@@ -8557,7 +8570,7 @@
         <v>121.43486</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>45351</v>
       </c>
@@ -8583,7 +8596,7 @@
         <v>118.11790000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>45380</v>
       </c>
@@ -8609,7 +8622,7 @@
         <v>121.14182</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>45412</v>
       </c>
@@ -8635,7 +8648,7 @@
         <v>115.01418</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>45443</v>
       </c>
@@ -8661,7 +8674,7 @@
         <v>117.57822</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>45471</v>
       </c>
@@ -8687,7 +8700,7 @@
         <v>118.36827</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>45504</v>
       </c>
@@ -8713,7 +8726,7 @@
         <v>122.22667</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>45534</v>
       </c>
@@ -8739,7 +8752,7 @@
         <v>124.99984000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>45565</v>
       </c>
@@ -8765,7 +8778,7 @@
         <v>126.97523</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>45596</v>
       </c>
@@ -8791,7 +8804,7 @@
         <v>116.40604</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>45625</v>
       </c>
@@ -8817,7 +8830,7 @@
         <v>117.37953</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>45657</v>
       </c>
@@ -8843,7 +8856,7 @@
         <v>114.0762</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>45688</v>
       </c>
@@ -8869,7 +8882,7 @@
         <v>113.926</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>45716</v>
       </c>
@@ -8895,7 +8908,7 @@
         <v>116.05153</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>45747</v>
       </c>
@@ -8921,7 +8934,7 @@
         <v>118.16479</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>45777</v>
       </c>
@@ -8947,7 +8960,7 @@
         <v>124.63184</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>45807</v>
       </c>
@@ -8973,7 +8986,7 @@
         <v>122.95447</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>45838</v>
       </c>
@@ -8999,7 +9012,7 @@
         <v>127.51089</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>45869</v>
       </c>
@@ -9025,7 +9038,7 @@
         <v>121.79588</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>45898</v>
       </c>
@@ -9051,7 +9064,7 @@
         <v>122.26090000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>45930</v>
       </c>
@@ -9077,7 +9090,7 @@
         <v>122.26156</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>45961</v>
       </c>
@@ -9103,7 +9116,7 @@
         <v>122.94177999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>45989</v>
       </c>

--- a/Data_Ryan/Bond Futures.xlsx
+++ b/Data_Ryan/Bond Futures.xlsx
@@ -9145,4 +9145,225 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100958F3DD216C04B45B375149FC6D7031B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a97155ece4e73437d6ac9e8c2b521dba">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="63fe9c16-2f69-4d2d-9e53-848c714d6ac9" xmlns:ns3="d1f15cdc-886a-4af0-9db5-f84c8d88527b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="18d81164747ea7b7c52960c73b4ce974" ns2:_="" ns3:_="">
+    <xsd:import namespace="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
+    <xsd:import namespace="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63fe9c16-2f69-4d2d-9e53-848c714d6ac9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7c938953-97e4-410d-a323-cf9a87d86f1a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1f15cdc-886a-4af0-9db5-f84c8d88527b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{502f970b-60dd-4ae0-97cd-587faabb26c3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d1f15cdc-886a-4af0-9db5-f84c8d88527b">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d1f15cdc-886a-4af0-9db5-f84c8d88527b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="63fe9c16-2f69-4d2d-9e53-848c714d6ac9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97CA64DD-D86F-41FB-8107-37EF50EE9939}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474F9036-7E0E-48AC-ADAA-70DD0AD3869E}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A24394-6FEE-4A4C-AE69-8B5E72216E0C}"/>
 </file>